--- a/disinf.xlsx
+++ b/disinf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="155">
   <si>
     <t>S No</t>
   </si>
@@ -476,6 +476,9 @@
   </si>
   <si>
     <t>10.30 AM</t>
+  </si>
+  <si>
+    <t>3.45 PM</t>
   </si>
 </sst>
 </file>
@@ -1308,11 +1311,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -5041,6 +5051,39 @@
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>65</v>
+      </c>
+      <c r="C99" t="s">
+        <v>117</v>
+      </c>
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" t="s">
+        <v>16</v>
+      </c>
+      <c r="G99" s="1">
+        <v>44603</v>
+      </c>
+      <c r="H99" t="s">
+        <v>154</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99" t="s">
+        <v>18</v>
+      </c>
+      <c r="K99" t="s">
+        <v>19</v>
+      </c>
+      <c r="L99" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
